--- a/Forecasts/Nevada.xlsx
+++ b/Forecasts/Nevada.xlsx
@@ -887,7 +887,7 @@
     <t xml:space="preserve">$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-08-19 06:41:53"</t>
+    <t xml:space="preserve">[1] "2020-08-19 20:33:54"</t>
   </si>
   <si>
     <t xml:space="preserve">$LEMMA.version</t>

--- a/Forecasts/Nevada.xlsx
+++ b/Forecasts/Nevada.xlsx
@@ -3713,7 +3713,7 @@
     <t xml:space="preserve">$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2021-03-18 09:31:06"</t>
+    <t xml:space="preserve">[1] "2021-03-18 10:28:47"</t>
   </si>
   <si>
     <t xml:space="preserve">$LEMMA.version</t>

--- a/Forecasts/Nevada.xlsx
+++ b/Forecasts/Nevada.xlsx
@@ -7475,7 +7475,7 @@
     <t xml:space="preserve">$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2021-04-20 09:35:19"</t>
+    <t xml:space="preserve">[1] "2021-04-20 12:01:54"</t>
   </si>
   <si>
     <t xml:space="preserve">$LEMMA.version</t>
